--- a/datos.xlsx
+++ b/datos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W70"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,21 +551,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>231778496</t>
+          <t>2129031526</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VILLAVICENCIO</t>
+          <t>RESTREPO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10/29/2022 4:14:03 PM</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>02/10/2023 9:20:28 PM</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>REPORTADO ENTREGADO</t>
@@ -576,7 +580,11 @@
           <t>NORMAL</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CDS ES MCIA RESTREPO</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>0.000000000000000 | 0.000000000000000</t>
@@ -599,7 +607,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>CRA 6 # 8 - 16. VILLAVICENCIO</t>
+          <t>CRA 6 # 8 - 16. RESTREPO</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -622,7 +630,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2161788829</t>
+          <t>2129034230</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -633,7 +641,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11/01/2022 3:27:20 PM</t>
+          <t>02/10/2023 9:12:32 PM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -643,7 +651,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ENTREGA VERIFICADA</t>
+          <t>REPORTADO ENTREGADO</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -653,7 +661,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>CDS ES DCTO RESTREPO</t>
+          <t>CDS ES MCIA RESTREPO</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -671,24 +679,24 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Q3" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> . RESTREPO</t>
+          <t>CRA 6 # 8 - 16. RESTREPO</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>DOCUMENTOS</t>
+          <t>RESTREPO (META)</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>CRA 6 # 8 - 16</t>
         </is>
       </c>
       <c r="U3" t="inlineStr"/>
@@ -701,7 +709,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2162143803</t>
+          <t>2129036584</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -712,7 +720,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10/29/2022 3:41:17 PM</t>
+          <t>02/10/2023 9:11:22 PM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -722,7 +730,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ENTREGA VERIFICADA</t>
+          <t>REPORTADO ENTREGADO</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -732,7 +740,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>CDS ES DCTO RESTREPO</t>
+          <t>CDS ES MCIA RESTREPO</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -750,24 +758,24 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Q4" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> . RESTREPO</t>
+          <t>CRA 6 # 8 - 16. RESTREPO</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>DOCUMENTOS</t>
+          <t>RESTREPO (META)</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>CRA 6 # 8 - 16</t>
         </is>
       </c>
       <c r="U4" t="inlineStr"/>
@@ -780,7 +788,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2165877749</t>
+          <t>2139595988</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -791,13 +799,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10/07/2022 9:23:04 AM</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>02/10/2023 9:12:11 PM</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>DEVOLUCION ZONA URBANA</t>
+          <t>REPORTADO ENTREGADO</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -805,7 +817,11 @@
           <t>NORMAL</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CDS ES MCIA RESTREPO</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>0.000000000000000 | 0.000000000000000</t>
@@ -816,19 +832,15 @@
           <t>0.000000000000000 | 0.000000000000000</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>DESTINATARIO NO CANCELA C.O.D. LOGISTICA</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -855,18 +867,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2167602235</t>
+          <t>2145085871</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VILLAVICENCIO</t>
+          <t>RESTREPO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10/11/2022 4:55:04 PM</t>
+          <t>02/10/2023 9:24:20 PM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -876,7 +888,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>ENTREGA VERIFICADA</t>
+          <t>REPORTADO ENTREGADO</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -904,24 +916,24 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Q6" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> . VILLAVICENCIO</t>
+          <t>CRA 6 # 8 - 16. RESTREPO</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>MERCANCIA PREMIER</t>
+          <t>RESTREPO (META)</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>CRA 6 # 8 - 16</t>
         </is>
       </c>
       <c r="U6" t="inlineStr"/>
@@ -934,7 +946,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2169277038</t>
+          <t>2151145588</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -945,13 +957,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10/29/2022 9:03:20 AM</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>02/10/2023 9:08:35 PM</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>DEVOLUCION ZONA URBANA</t>
+          <t>REPORTADO ENTREGADO</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -959,7 +975,11 @@
           <t>NORMAL</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CDS ES MCIA RESTREPO</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>0.000000000000000 | 0.000000000000000</t>
@@ -970,19 +990,15 @@
           <t>0.000000000000000 | 0.000000000000000</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>DESTINATARIO NO CANCELA C.O.D. LOGISTICA</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="Q7" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -1009,18 +1025,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9137160126</t>
+          <t>2152483425</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VILLA GORGONA</t>
+          <t>RESTREPO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>01/18/2023 12:00:00 AM</t>
+          <t>02/10/2023 9:16:56 PM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1030,7 +1046,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>ENTREGA VERIFICADA</t>
+          <t>REPORTADO ENTREGADO</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1040,7 +1056,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>CDS ES DCTO RESTREPO</t>
+          <t>CDS ES MCIA RESTREPO</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1058,24 +1074,24 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Q8" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> . VILLA GORGONA</t>
+          <t>CRA 6 # 8 - 16. RESTREPO</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>DOCUMENTOS</t>
+          <t>RESTREPO (META)</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>CRA 6 # 8 - 16</t>
         </is>
       </c>
       <c r="U8" t="inlineStr"/>
@@ -1088,28 +1104,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9147007918</t>
+          <t>2158670584</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>RESTREPO</t>
+          <t>VILLAVICENCIO</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10/31/2022 11:01:02 AM</t>
+          <t>02/10/2023 9:15:24 PM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>HAROLD FABRICIO MERCHAN PARRA</t>
+          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>SALIDA A ZONA URBANA</t>
+          <t>REPORTADO ENTREGADO</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1132,23 +1148,31 @@
           <t>0.000000000000000 | 0.000000000000000</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>EMPRESARIO SATELITE ENTREGA EN DOMICILIO</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="Q9" t="n">
-        <v>9</v>
-      </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
+        <v>24</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>CRA 6 # 8 - 16. VILLAVICENCIO</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>RESTREPO (META)</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>CRA 6 # 8 - 16</t>
+        </is>
+      </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
@@ -1159,18 +1183,18 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>522760109</t>
+          <t>2164814489</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VILLAVICENCIO</t>
+          <t>RESTREPO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>01/13/2023 10:13:43 PM</t>
+          <t>02/10/2023 8:38:54 PM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1215,7 +1239,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>CRA 6 # 8 - 16. VILLAVICENCIO</t>
+          <t>CRA 6 # 8 - 16. RESTREPO</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1238,7 +1262,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2095307865</t>
+          <t>2167929154</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -1249,7 +1273,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>01/13/2023 10:16:13 PM</t>
+          <t>02/10/2023 8:52:08 PM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1317,7 +1341,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2111368424</t>
+          <t>2167929401</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1328,17 +1352,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12/15/2022 3:22:32 AM</t>
+          <t>02/10/2023 8:52:27 PM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>RODRIGO RAMIREZ RICO</t>
+          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ENTRADA DE REGIONAL</t>
+          <t>REPORTADO ENTREGADO</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1346,7 +1370,11 @@
           <t>NORMAL</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>CDS ES MCIA RESTREPO</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>0.000000000000000 | 0.000000000000000</t>
@@ -1362,24 +1390,24 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q12" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> . RESTREPO</t>
+          <t>CRA 6 # 8 - 16. RESTREPO</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>MERCANCIA PREMIER</t>
+          <t>RESTREPO (META)</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>CRA 6 # 8 - 16</t>
         </is>
       </c>
       <c r="U12" t="inlineStr"/>
@@ -1392,7 +1420,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2111368431</t>
+          <t>2171535321</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1403,7 +1431,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>01/13/2023 10:18:46 PM</t>
+          <t>02/10/2023 8:51:26 PM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1471,7 +1499,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2123282428</t>
+          <t>2171535509</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1482,7 +1510,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>01/13/2023 10:19:24 PM</t>
+          <t>02/10/2023 9:14:52 PM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1550,18 +1578,18 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2167602461</t>
+          <t>2171921928</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VILLAVICENCIO</t>
+          <t>RESTREPO</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11/22/2022 9:13:04 PM</t>
+          <t>02/10/2023 9:23:15 PM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1606,7 +1634,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>CRA 6 # 8 - 16. VILLAVICENCIO</t>
+          <t>CRA 6 # 8 - 16. RESTREPO</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1629,7 +1657,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2169146641</t>
+          <t>2173240654</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1640,7 +1668,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>01/14/2023 2:37:25 PM</t>
+          <t>02/10/2023 8:29:00 PM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1650,7 +1678,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>ENTREGA VERIFICADA</t>
+          <t>REPORTADO ENTREGADO</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1678,24 +1706,24 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Q16" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> . RESTREPO</t>
+          <t>CRA 6 # 8 - 16. RESTREPO</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>MERCANCIA PREMIER</t>
+          <t>RESTREPO (META)</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>CRA 6 # 8 - 16</t>
         </is>
       </c>
       <c r="U16" t="inlineStr"/>
@@ -1708,7 +1736,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2169933592</t>
+          <t>2173785485</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1719,7 +1747,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>01/14/2023 8:42:06 AM</t>
+          <t>02/10/2023 9:14:12 PM</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1729,7 +1757,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ENTREGA VERIFICADA</t>
+          <t>REPORTADO ENTREGADO</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1757,24 +1785,24 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Q17" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> . RESTREPO</t>
+          <t>CRA 6 # 8 - 16. RESTREPO</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>MERCANCIA PREMIER</t>
+          <t>RESTREPO (META)</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>CRA 6 # 8 - 16</t>
         </is>
       </c>
       <c r="U17" t="inlineStr"/>
@@ -1787,7 +1815,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2170422314</t>
+          <t>2176081466</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1798,17 +1826,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>01/14/2023 8:40:10 AM</t>
+          <t>02/10/2023 2:10:58 PM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CHRISTIAM LEONARDO ANDRADE REYES</t>
+          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>ENTREGA VERIFICADA</t>
+          <t>ENVIO PARA ENTREGA A DOMICILIO</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1836,24 +1864,24 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="Q18" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> . RESTREPO</t>
+          <t>CRA 6 # 8 - 16. RESTREPO</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>MERCANCIA PREMIER</t>
+          <t>RESTREPO (META)</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>CRA 6 # 8 - 16</t>
         </is>
       </c>
       <c r="U18" t="inlineStr"/>
@@ -1866,7 +1894,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9154439920</t>
+          <t>2176738241</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1877,7 +1905,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11/08/2022 4:09:50 PM</t>
+          <t>02/10/2023 2:10:58 PM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1902,12 +1930,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-73.56501121</t>
+          <t>-73.56510822</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>4.26219316</t>
+          <t>4.2620955</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
@@ -1945,18 +1973,18 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9155305065</t>
+          <t>2176746209</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>BOGOTA</t>
+          <t>RESTREPO</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11/04/2022 3:58:34 PM</t>
+          <t>02/10/2023 8:33:17 PM</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1966,7 +1994,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>ENVIO PARA ENTREGA EN OFICINA</t>
+          <t>REPORTADO ENTREGADO</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1981,12 +2009,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-73.56501121</t>
+          <t>0.000000000000000 | 0.000000000000000</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>4.26219316</t>
+          <t>0.000000000000000 | 0.000000000000000</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
@@ -1994,14 +2022,14 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="Q20" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>CRA 6 # 8 - 16. BOGOTA</t>
+          <t>CRA 6 # 8 - 16. RESTREPO</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -2024,7 +2052,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2089161788</t>
+          <t>2176746924</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -2035,7 +2063,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>01/13/2023 10:31:34 PM</t>
+          <t>02/10/2023 2:10:58 PM</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2045,7 +2073,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>REPORTADO ENTREGADO</t>
+          <t>ENVIO PARA ENTREGA EN OFICINA</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2060,12 +2088,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
+          <t>-73.56510822</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
+          <t>4.2620955</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
@@ -2073,10 +2101,10 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="Q21" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -2103,7 +2131,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2089161812</t>
+          <t>2176747539</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -2114,7 +2142,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>01/13/2023 10:33:04 PM</t>
+          <t>02/10/2023 8:27:22 PM</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2182,7 +2210,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2089161922</t>
+          <t>2176751705</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -2193,17 +2221,13 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>01/13/2023 10:47:34 PM</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
+          <t>02/11/2023 3:56:07 PM</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>REPORTADO ENTREGADO</t>
+          <t>SALIDA A BODEGA LOCAL</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2211,11 +2235,7 @@
           <t>NORMAL</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>CDS ES MCIA RESTREPO</t>
-        </is>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
           <t>0.000000000000000 | 0.000000000000000</t>
@@ -2226,29 +2246,33 @@
           <t>0.000000000000000 | 0.000000000000000</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>SOLICITAR CITA PREVIA</t>
+        </is>
+      </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="Q23" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>CRA 6 # 8 - 16. RESTREPO</t>
+          <t xml:space="preserve"> . RESTREPO</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>RESTREPO (META)</t>
+          <t>CONFIRMACIONES MERC. PREMIER</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>CRA 6 # 8 - 16</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="U23" t="inlineStr"/>
@@ -2261,7 +2285,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2089161941</t>
+          <t>2176779765</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -2272,7 +2296,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>01/14/2023 8:35:05 AM</t>
+          <t>02/10/2023 9:25:31 PM</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2340,18 +2364,18 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2089166520</t>
+          <t>2176901371</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>RESTREPO</t>
+          <t>VILLAVICENCIO</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>01/13/2023 10:49:17 PM</t>
+          <t>02/10/2023 8:31:41 PM</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2396,7 +2420,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>CRA 6 # 8 - 16. RESTREPO</t>
+          <t>CRA 6 # 8 - 16. VILLAVICENCIO</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -2419,7 +2443,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2092670202</t>
+          <t>2176938657</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -2430,7 +2454,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12/09/2022 10:35:25 AM</t>
+          <t>02/10/2023 9:15:40 PM</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2440,7 +2464,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>SALIDA A ZONA URBANA</t>
+          <t>REPORTADO ENTREGADO</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2463,27 +2487,31 @@
           <t>0.000000000000000 | 0.000000000000000</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>EMPRESARIO SATELITE ENTREGA EN DOMICILIO</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="Q26" t="n">
-        <v>9</v>
-      </c>
-      <c r="R26" t="inlineStr"/>
+        <v>24</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>CRA 6 # 8 - 16. RESTREPO</t>
+        </is>
+      </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>SIN DEFINIR</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr"/>
+          <t>RESTREPO (META)</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>CRA 6 # 8 - 16</t>
+        </is>
+      </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
@@ -2494,7 +2522,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2104592813</t>
+          <t>2176938663</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -2505,7 +2533,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>01/14/2023 2:36:48 PM</t>
+          <t>02/10/2023 9:16:01 PM</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2515,7 +2543,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>ENTREGA VERIFICADA</t>
+          <t>REPORTADO ENTREGADO</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2543,24 +2571,24 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Q27" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> . RESTREPO</t>
+          <t>CRA 6 # 8 - 16. RESTREPO</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>MERCANCIA PREMIER</t>
+          <t>RESTREPO (META)</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>CRA 6 # 8 - 16</t>
         </is>
       </c>
       <c r="U27" t="inlineStr"/>
@@ -2573,7 +2601,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2107373906</t>
+          <t>2179444401</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -2584,13 +2612,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>01/04/2023 8:20:08 AM</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
+          <t>02/10/2023 8:28:10 PM</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ENVIO PARA ENTREGA A DOMICILIO</t>
+          <t>REPORTADO ENTREGADO</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2598,7 +2630,11 @@
           <t>NORMAL</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>CDS ES MCIA RESTREPO</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr">
         <is>
           <t>0.000000000000000 | 0.000000000000000</t>
@@ -2614,10 +2650,10 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Q28" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2644,7 +2680,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2107376639</t>
+          <t>3011003965</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -2655,7 +2691,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>01/13/2023 10:55:52 PM</t>
+          <t>02/10/2023 9:13:40 PM</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2723,7 +2759,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2111374129</t>
+          <t>3014466745</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -2734,7 +2770,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>01/05/2023 9:49:32 AM</t>
+          <t>02/10/2023 2:11:00 PM</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2744,7 +2780,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>REPORTADO ENTREGADO</t>
+          <t>ENVIO PARA ENTREGA A DOMICILIO</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2772,10 +2808,10 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q30" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2802,7 +2838,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2111381675</t>
+          <t>3020072394</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -2813,7 +2849,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>01/13/2023 2:45:06 PM</t>
+          <t>02/10/2023 2:11:00 PM</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2823,7 +2859,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>REPORTADO ENTREGADO</t>
+          <t>ENVIO PARA ENTREGA A DOMICILIO</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2851,10 +2887,10 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q31" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2881,7 +2917,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2111384338</t>
+          <t>3041022504</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -2892,7 +2928,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12/13/2022 10:32:38 PM</t>
+          <t>02/10/2023 2:11:00 PM</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2902,7 +2938,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>REPORTADO ENTREGADO</t>
+          <t>ENVIO PARA ENTREGA A DOMICILIO</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2930,10 +2966,10 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q32" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2960,18 +2996,18 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2111408816</t>
+          <t>3043847040</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>RESTREPO</t>
+          <t>VILLAVICENCIO</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>01/13/2023 10:57:22 PM</t>
+          <t>02/10/2023 9:18:49 PM</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3016,7 +3052,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>CRA 6 # 8 - 16. RESTREPO</t>
+          <t>CRA 6 # 8 - 16. VILLAVICENCIO</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -3039,7 +3075,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2124902530</t>
+          <t>3045539096</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -3050,7 +3086,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12/09/2022 8:13:32 PM</t>
+          <t>02/10/2023 2:11:01 PM</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3060,7 +3096,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>REPORTADO ENTREGADO</t>
+          <t>ENVIO PARA ENTREGA A DOMICILIO</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -3088,10 +3124,10 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q34" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -3118,7 +3154,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2131458302</t>
+          <t>3047099382</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -3129,7 +3165,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>01/13/2023 10:58:57 PM</t>
+          <t>02/10/2023 9:13:20 PM</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3197,7 +3233,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2131458587</t>
+          <t>9156674647</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -3208,7 +3244,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>01/12/2023 3:50:48 PM</t>
+          <t>02/10/2023 8:32:28 PM</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3276,7 +3312,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2132213674</t>
+          <t>9159055187</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -3287,7 +3323,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>01/14/2023 2:36:10 PM</t>
+          <t>02/10/2023 9:23:38 PM</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3297,7 +3333,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>ENTREGA VERIFICADA</t>
+          <t>REPORTADO ENTREGADO</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3325,24 +3361,24 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Q37" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> . RESTREPO</t>
+          <t>CRA 6 # 8 - 16. RESTREPO</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>MERCANCIA PREMIER</t>
+          <t>RESTREPO (META)</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>CRA 6 # 8 - 16</t>
         </is>
       </c>
       <c r="U37" t="inlineStr"/>
@@ -3355,7 +3391,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2132467190</t>
+          <t>9159793527</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -3366,7 +3402,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>01/14/2023 8:41:37 AM</t>
+          <t>02/10/2023 9:23:58 PM</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3376,7 +3412,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>ENTREGA VERIFICADA</t>
+          <t>REPORTADO ENTREGADO</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3404,24 +3440,24 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Q38" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> . RESTREPO</t>
+          <t>CRA 6 # 8 - 16. RESTREPO</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>MERCANCIA PREMIER</t>
+          <t>RESTREPO (META)</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>CRA 6 # 8 - 16</t>
         </is>
       </c>
       <c r="U38" t="inlineStr"/>
@@ -3434,7 +3470,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2137035982</t>
+          <t>9159932900</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -3445,7 +3481,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>01/13/2023 11:03:19 PM</t>
+          <t>02/10/2023 9:14:30 PM</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3513,7 +3549,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2143590008</t>
+          <t>9161309827</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -3524,17 +3560,13 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>01/13/2023 11:04:11 PM</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
+          <t>02/11/2023 3:56:07 PM</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>REPORTADO ENTREGADO</t>
+          <t>SALIDA A BODEGA LOCAL</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3542,11 +3574,7 @@
           <t>NORMAL</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>CDS ES MCIA RESTREPO</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
           <t>0.000000000000000 | 0.000000000000000</t>
@@ -3557,2380 +3585,38 @@
           <t>0.000000000000000 | 0.000000000000000</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>SOLICITAR CITA PREVIA</t>
+        </is>
+      </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="Q40" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>CRA 6 # 8 - 16. RESTREPO</t>
+          <t xml:space="preserve"> . RESTREPO</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>RESTREPO (META)</t>
+          <t>CONFIRMACIONES MERC. PREMIER</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>CRA 6 # 8 - 16</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2145353943</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>VILLAVICENCIO</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>12/07/2022 5:17:15 PM</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>ENVIO PARA ENTREGA A DOMICILIO</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>CDS ES MCIA RESTREPO</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>32</v>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16. VILLAVICENCIO</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>RESTREPO (META)</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2154087258</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>RESTREPO</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>01/13/2023 11:05:30 PM</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>REPORTADO ENTREGADO</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>CDS ES MCIA RESTREPO</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>24</v>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16. RESTREPO</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>RESTREPO (META)</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2154087259</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>RESTREPO</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>01/13/2023 11:06:12 PM</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>REPORTADO ENTREGADO</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>CDS ES MCIA RESTREPO</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>24</v>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16. RESTREPO</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>RESTREPO (META)</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2159691695</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>RESTREPO</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>01/13/2023 11:06:55 PM</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>REPORTADO ENTREGADO</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>CDS ES MCIA RESTREPO</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>24</v>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16. RESTREPO</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>RESTREPO (META)</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2160511138</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>RESTREPO</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>01/13/2023 11:07:38 PM</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>REPORTADO ENTREGADO</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>CDS ES MCIA RESTREPO</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>24</v>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16. RESTREPO</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>RESTREPO (META)</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2161855791</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>RESTREPO</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>01/04/2023 8:11:10 AM</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>REPORTADO ENTREGADO</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>CDS ES MCIA RESTREPO</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>24</v>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16. RESTREPO</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>RESTREPO (META)</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2170295802</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>RESTREPO</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>01/17/2023 4:31:51 PM</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>REPORTADO ENTREGADO</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>CDS ES MCIA RESTREPO</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>24</v>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16. RESTREPO</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>RESTREPO (META)</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2170295807</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>RESTREPO</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>01/17/2023 4:30:02 PM</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>REPORTADO ENTREGADO</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>CDS ES MCIA RESTREPO</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>24</v>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16. RESTREPO</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>RESTREPO (META)</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2170339631</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>RESTREPO</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>12/13/2022 10:34:38 PM</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>REPORTADO ENTREGADO</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>CDS ES MCIA RESTREPO</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>24</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16. RESTREPO</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>RESTREPO (META)</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16</t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2170506586</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>RESTREPO</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>12/06/2022 2:41:14 PM</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>SALIDA A ZONA URBANA</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>CDS ES MCIA RESTREPO</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>EMPRESARIO SATELITE C.O.D. Y/O LPC</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>9</v>
-      </c>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>SIN DEFINIR</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2170672262</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>RESTREPO</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>01/14/2023 8:40:49 AM</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>ENTREGA VERIFICADA</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>CDS ES MCIA RESTREPO</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>11</v>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> . RESTREPO</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>MERCANCIA PREMIER</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2173706594</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>RESTREPO</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>01/11/2023 3:14:24 PM</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>REPORTADO ENTREGADO</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>CDS ES MCIA RESTREPO</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>24</v>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16. RESTREPO</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>RESTREPO (META)</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2174746520</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>RESTREPO</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>12/30/2022 9:52:19 PM</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>ENTREGA VERIFICADA</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>CDS ES MCIA RESTREPO</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>11</v>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> . RESTREPO</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>MERCANCIA PREMIER</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>3006323249</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>RESTREPO</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>01/13/2023 11:39:20 PM</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>REPORTADO ENTREGADO</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>CDS ES MCIA RESTREPO</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>24</v>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16. RESTREPO</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>RESTREPO (META)</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16</t>
-        </is>
-      </c>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>3014462180</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>RESTREPO</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>01/13/2023 11:40:01 PM</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>REPORTADO ENTREGADO</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>CDS ES MCIA RESTREPO</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>24</v>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16. RESTREPO</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>RESTREPO (META)</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16</t>
-        </is>
-      </c>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>3041651686</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>RESTREPO</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>01/13/2023 11:40:50 PM</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>REPORTADO ENTREGADO</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>CDS ES MCIA RESTREPO</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>24</v>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16. RESTREPO</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>RESTREPO (META)</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16</t>
-        </is>
-      </c>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>3041652089</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>RESTREPO</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>01/13/2023 11:41:57 PM</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>REPORTADO ENTREGADO</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>CDS ES MCIA RESTREPO</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>24</v>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16. RESTREPO</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>RESTREPO (META)</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16</t>
-        </is>
-      </c>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>3041989991</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>RESTREPO</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>01/10/2023 5:00:54 PM</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>REPORTADO ENTREGADO</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>CDS ES MCIA RESTREPO</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>24</v>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16. RESTREPO</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>RESTREPO (META)</t>
-        </is>
-      </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16</t>
-        </is>
-      </c>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>3041991060</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>RESTREPO</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>01/13/2023 11:43:04 PM</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>REPORTADO ENTREGADO</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>CDS ES MCIA RESTREPO</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>24</v>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16. RESTREPO</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>RESTREPO (META)</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16</t>
-        </is>
-      </c>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>3044095813</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>RESTREPO</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>12/13/2022 10:33:05 PM</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>REPORTADO ENTREGADO</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>CDS ES MCIA RESTREPO</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>24</v>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16. RESTREPO</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>RESTREPO (META)</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16</t>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>3044139383</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>RESTREPO</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>01/13/2023 11:44:20 PM</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>REPORTADO ENTREGADO</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>CDS ES MCIA RESTREPO</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>24</v>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16. RESTREPO</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>RESTREPO (META)</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16</t>
-        </is>
-      </c>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>3044139471</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>RESTREPO</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>01/13/2023 11:45:01 PM</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>REPORTADO ENTREGADO</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>CDS ES MCIA RESTREPO</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>24</v>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16. RESTREPO</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>RESTREPO (META)</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16</t>
-        </is>
-      </c>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>3044415861</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>RESTREPO</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>01/13/2023 11:46:12 PM</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>REPORTADO ENTREGADO</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>CDS ES MCIA RESTREPO</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>24</v>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16. RESTREPO</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>RESTREPO (META)</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16</t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>3044418127</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>RESTREPO</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>12/20/2022 10:42:39 PM</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>REPORTADO ENTREGADO</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>CDS ES MCIA RESTREPO</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>24</v>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16. RESTREPO</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>RESTREPO (META)</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16</t>
-        </is>
-      </c>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>9147225713</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>VILLAVICENCIO</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>01/13/2023 11:46:58 PM</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>REPORTADO ENTREGADO</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>CDS ES MCIA RESTREPO</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>24</v>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16. VILLAVICENCIO</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>RESTREPO (META)</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>CRA 6 # 8 - 16</t>
-        </is>
-      </c>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>9153467569</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>BUCARAMANGA</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>12/16/2022 11:57:28 AM</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>SALIDA A ZONA URBANA</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>CDS ES MCIA RESTREPO</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>EMPRESARIO SATELITE C.O.D. Y/O LPC</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>9</v>
-      </c>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>9154939023</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>RESTREPO</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>01/14/2023 8:42:47 AM</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>ENTREGA VERIFICADA</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>CDS ES MCIA RESTREPO</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>11</v>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> . RESTREPO</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>MERCANCIA PREMIER</t>
-        </is>
-      </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>9155305185</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>BUCARAMANGA</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>12/18/2022 2:53:58 AM</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>APOYO EJECUTIVO RECTA RECTA FINAL</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>SALIDA A REGIONAL</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>12</v>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> . BUCARAMANGA</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>MERCANCIA PREMIER</t>
-        </is>
-      </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>9157577296</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>RESTREPO</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>01/14/2023 2:34:39 PM</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>ENTREGA VERIFICADA</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>CDS ES MCIA RESTREPO</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>11</v>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> . RESTREPO</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>MERCANCIA PREMIER</t>
-        </is>
-      </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>9157957057</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>RESTREPO</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>02/08/2023 6:33:04 AM</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>ALEXANDER HERNANDEZ BOHORQUEZ</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>SALIDA A ZONA URBANA</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>CDS ES DCTO RESTREPO</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>0.000000000000000 | 0.000000000000000</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>EMPRESARIO SATELITE ENTREGA EN DOMICILIO</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>9</v>
-      </c>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
